--- a/Dane/ZRM.tsv.xlsx
+++ b/Dane/ZRM.tsv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HP\Documents\Moje\Zadania\Praca magisterska\Projekt-magisterski\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C3312-4C0A-48D3-B55F-428ABBD99E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B245856-2641-4089-B2DF-878AF6AD95C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{1F7ACC45-B2D8-493D-ABBC-DE30F09DD553}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>K01 47</t>
   </si>
   <si>
-    <t>Topolowa 16 Chrzanów 32-500</t>
-  </si>
-  <si>
     <t>DM06-01</t>
   </si>
   <si>
@@ -71,81 +68,45 @@
     <t>K01 100</t>
   </si>
   <si>
-    <t>Tadeusza Kościuszki 50 Trzebinia 32-540</t>
-  </si>
-  <si>
     <t>K01 102</t>
   </si>
   <si>
-    <t>Lipowiecka 3 Wygiełzów 32-551</t>
-  </si>
-  <si>
-    <t>Górnicza 5 Libiąż 32-590</t>
-  </si>
-  <si>
     <t>K01 104</t>
   </si>
   <si>
     <t>K01 154</t>
   </si>
   <si>
-    <t>ul. Szkolna 6 Nowa Wieś Szlachecka 32-060</t>
-  </si>
-  <si>
-    <t>ul. Wodąca 2 Bukowno 32-332</t>
-  </si>
-  <si>
     <t>K01 152</t>
   </si>
   <si>
     <t>K01 032</t>
   </si>
   <si>
-    <t>Legionów Polskich 6 Krzeszowice 32-065</t>
-  </si>
-  <si>
     <t>K01 138</t>
   </si>
   <si>
     <t>K01 142</t>
   </si>
   <si>
-    <t>Wysokie Brzegi  4 Oświęcim 32-600</t>
-  </si>
-  <si>
     <t>K01 112</t>
   </si>
   <si>
     <t>K01 116</t>
   </si>
   <si>
-    <t>Palimąki 2 Zator 32-640</t>
-  </si>
-  <si>
     <t>K01 43</t>
   </si>
   <si>
-    <t>Osiecka 3a Olkusz 32-300</t>
-  </si>
-  <si>
     <t>K01 022</t>
   </si>
   <si>
-    <t>Kryspinów 356 Kryspinów 32-060</t>
-  </si>
-  <si>
     <t>K01 07</t>
   </si>
   <si>
-    <t>Kolejowa 28 Zabierzów 32-080</t>
-  </si>
-  <si>
     <t>S02 242</t>
   </si>
   <si>
-    <t>ul. Chełmońskiego 28 43-600 Jaworzno</t>
-  </si>
-  <si>
     <t>DM12-02</t>
   </si>
   <si>
@@ -158,25 +119,64 @@
     <t>S02 350</t>
   </si>
   <si>
-    <t>ul. Mikołowska 50 41-400 Mysłowice</t>
-  </si>
-  <si>
     <t>S02 352</t>
   </si>
   <si>
     <t>S02 308</t>
   </si>
   <si>
-    <t>ul. Pokoju 17 43-143 Lędziny</t>
-  </si>
-  <si>
     <t>S02 313</t>
   </si>
   <si>
-    <t>ul. Bartosza Głowackiego 10 40-052 Katowice</t>
-  </si>
-  <si>
     <t>S02 348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topolowa 16 32-500 Chrzanów </t>
+  </si>
+  <si>
+    <t>Lipowiecka 3 32-551 Wygiełzów</t>
+  </si>
+  <si>
+    <t>Tadeusza Kościuszki 50 32-540 Trzebinia</t>
+  </si>
+  <si>
+    <t>Górnicza 5 32-590 Libiąż</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szkolna 6 32-060 Nowa Wieś Szlachecka </t>
+  </si>
+  <si>
+    <t>Legionów Polskich 6 32-065 Krzeszowice</t>
+  </si>
+  <si>
+    <t>Wodąca 2 32-332 Bukowno</t>
+  </si>
+  <si>
+    <t>Wysokie Brzegi  4 32-600 Oświęcim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palimąki 2 32-640 Zator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osiecka 3a 32-300 Olkusz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kryspinów 356 32-060 Kryspinów </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolejowa 28 32-080 Zabierzów </t>
+  </si>
+  <si>
+    <t>Bartosza Głowackiego 10 40-052 Katowice</t>
+  </si>
+  <si>
+    <t>Pokoju 17 43-143 Lędziny</t>
+  </si>
+  <si>
+    <t>Mikołowska 50 41-400 Mysłowice</t>
+  </si>
+  <si>
+    <t>Chełmońskiego 28 43-600 Jaworzno</t>
   </si>
 </sst>
 </file>
@@ -700,16 +700,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,17 +1088,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFC157F-0935-4134-95C4-41B2B7AEFF10}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,11 +1111,11 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1129,13 +1126,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1143,33 +1140,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1177,16 +1174,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1194,33 +1191,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1228,84 +1225,84 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1313,33 +1310,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1347,16 +1344,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1364,67 +1361,67 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,16 +1429,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1449,16 +1446,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1466,50 +1463,50 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
